--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_05_end.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_05_end.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Facing down the indomitable Skadi and swarms of bounty hunters, Grani has no choice but to retreat into the cave to meet Carol. However, waiting for her within the cave's depths is a familiar comrade…
+    <t xml:space="preserve">Facing down the indomitable Skadi and swarms of bounty hunters, Grani has no choice but to retreat into the cave to meet Carol. However, waiting for her within the cave's depths is a familiar comrade...
 </t>
   </si>
   <si>
